--- a/biology/Zoologie/La_Citadelle_assiégée/La_Citadelle_assiégée.xlsx
+++ b/biology/Zoologie/La_Citadelle_assiégée/La_Citadelle_assiégée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>La_Citadelle_assi%C3%A9g%C3%A9e</t>
+          <t>La_Citadelle_assiégée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Citadelle assiégée (aussi intitulé Micropolis, la citadelle assiégée) est un documentaire français réalisé en 2006 par Philippe Calderon, tourné au Burkina Faso, mettant en scène des termites Macrotermes bellicosus et des fourmis magnan Dorylus nigricans .
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>La_Citadelle_assi%C3%A9g%C3%A9e</t>
+          <t>La_Citadelle_assiégée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En pleine savane africaine, au sud-est du Burkina Faso, à l'abri dans leur tour de plusieurs mètres de haut, les termites sont au travail… lorsqu'un drame vient bouleverser leur vie bien ordonnée. Une pluie tropicale diluvienne va inonder galeries et chambres de la termitière éventrée. Non loin de là, une colonne de terribles fourmis magnans, carnassières, se prépare à l'attaque. Elles vont profiter de la fragilité de la tour des termites pour mener un véritable assaut. Une guerre sans merci va faire rage…
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>La_Citadelle_assi%C3%A9g%C3%A9e</t>
+          <t>La_Citadelle_assiégée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Réalisation : Philippe Calderon
 Scénario : Philippe Calderon, Georges Marbeck, Guillaume Vincent, Jérôme Dauffy
